--- a/biology/Botanique/Ocimum_tenuiflorum/Ocimum_tenuiflorum.xlsx
+++ b/biology/Botanique/Ocimum_tenuiflorum/Ocimum_tenuiflorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ocimum tenuiflorum, également connu sous les noms de basilic tulsi ou de basilic sacré, est une espèce de plantes herbacées de la famille des Lamiaceae. Le tulsi est très consommé en Inde sous forme d'infusion qui se substitue souvent au thé. La médecine ayurvédique lui prête de nombreuses vertus.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des variétés et formes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (25 mars 2014)[2] (liste brute contenant possiblement des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (25 mars 2014) (liste brute contenant possiblement des synonymes) :
 variété Ocimum tenuiflorum var. anisodorum (F. Muell.) Domin
 forme Ocimum tenuiflorum fo. villicaulis Domin</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante et son huile contiennent divers composés phytochimiques parmi lesquels des tannins, des flavonoïdes, de l'eugénol, des caryophillènes, du carvacrol, du linalol, du camphre, de l'acétate de cynnamile[3],[4]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante et son huile contiennent divers composés phytochimiques parmi lesquels des tannins, des flavonoïdes, de l'eugénol, des caryophillènes, du carvacrol, du linalol, du camphre, de l'acétate de cynnamile,
 </t>
         </is>
       </c>
